--- a/result/24_pred.xlsx
+++ b/result/24_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,170 +447,154 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>541807.9943632652</v>
+        <v>541812.5469487564</v>
       </c>
       <c r="B2" t="n">
-        <v>365685.2051631291</v>
+        <v>365676.8820648271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>541797.0039358775</v>
+        <v>541794.962264936</v>
       </c>
       <c r="B3" t="n">
-        <v>365695.4135178367</v>
+        <v>365693.2154323591</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>541786.0135084897</v>
+        <v>541777.3775811156</v>
       </c>
       <c r="B4" t="n">
-        <v>365705.6218725441</v>
+        <v>365709.5487998911</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>541818.2027179728</v>
+        <v>541828.8803162884</v>
       </c>
       <c r="B5" t="n">
-        <v>365696.195590517</v>
+        <v>365694.4667486476</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>541807.2122905849</v>
+        <v>541811.295632468</v>
       </c>
       <c r="B6" t="n">
-        <v>365706.4039452244</v>
+        <v>365710.8001161796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>541796.2218631972</v>
+        <v>541793.7109486476</v>
       </c>
       <c r="B7" t="n">
-        <v>365716.6122999319</v>
+        <v>365727.1334837115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>541828.4110726803</v>
+        <v>541845.2136838204</v>
       </c>
       <c r="B8" t="n">
-        <v>365707.1860179047</v>
+        <v>365712.051432468</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>541817.4206452925</v>
+        <v>541827.629</v>
       </c>
       <c r="B9" t="n">
-        <v>365717.3943726122</v>
+        <v>365728.3848</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>541806.4302179047</v>
+        <v>541810.0443161795</v>
       </c>
       <c r="B10" t="n">
-        <v>365727.6027273197</v>
+        <v>365744.718167532</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>541838.6194273877</v>
+        <v>541861.5470513523</v>
       </c>
       <c r="B11" t="n">
-        <v>365718.1764452925</v>
+        <v>365729.6361162885</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>541827.629</v>
+        <v>541843.962367532</v>
       </c>
       <c r="B12" t="n">
-        <v>365728.3848</v>
+        <v>365745.9694838204</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>541816.6385726122</v>
+        <v>541826.3776837115</v>
       </c>
       <c r="B13" t="n">
-        <v>365738.5931547075</v>
+        <v>365762.3028513524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>541848.8277820952</v>
+        <v>541877.8804188843</v>
       </c>
       <c r="B14" t="n">
-        <v>365729.1668726803</v>
+        <v>365747.2208001089</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>541837.8373547074</v>
+        <v>541860.295735064</v>
       </c>
       <c r="B15" t="n">
-        <v>365739.3752273878</v>
+        <v>365763.5541676409</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>541826.8469273197</v>
+        <v>541842.7110512435</v>
       </c>
       <c r="B16" t="n">
-        <v>365749.5835820953</v>
+        <v>365779.8875351729</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>541859.0361368028</v>
+        <v>541828.2546581442</v>
       </c>
       <c r="B17" t="n">
-        <v>365740.1573000681</v>
+        <v>365711.4257743238</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>541848.045709415</v>
+        <v>541810.6699743237</v>
       </c>
       <c r="B18" t="n">
-        <v>365750.3656547756</v>
+        <v>365727.7591418558</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>541837.0552820271</v>
+        <v>541844.5880256762</v>
       </c>
       <c r="B19" t="n">
-        <v>365760.574009483</v>
+        <v>365729.0104581442</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>541869.2444915102</v>
+        <v>541827.0033418557</v>
       </c>
       <c r="B20" t="n">
-        <v>365751.1477274559</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>541858.2540641224</v>
-      </c>
-      <c r="B21" t="n">
-        <v>365761.3560821633</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>541847.2636367347</v>
-      </c>
-      <c r="B22" t="n">
-        <v>365771.5644368709</v>
+        <v>365745.3438256762</v>
       </c>
     </row>
   </sheetData>
